--- a/TimeDurationComparison.xlsx
+++ b/TimeDurationComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hachidori\PycharmProjects\HashTableProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E94E08-0442-4AA1-B407-9BB9E33D2C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55894B16-C98F-4EF7-B500-4F96751B15AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20475" yWindow="0" windowWidth="18615" windowHeight="10800" xr2:uid="{432D40FB-5E15-486E-A46E-98D79B6ED7BD}"/>
+    <workbookView xWindow="-11025" yWindow="0" windowWidth="11025" windowHeight="10800" xr2:uid="{432D40FB-5E15-486E-A46E-98D79B6ED7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,16 +422,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,6 +478,9 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>144.342361450195</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -492,6 +495,9 @@
       <c r="D4">
         <v>2.9001951217651301E-2</v>
       </c>
+      <c r="E4">
+        <v>13400</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -506,6 +512,9 @@
       <c r="D5">
         <v>0.35426855087280201</v>
       </c>
+      <c r="E5">
+        <v>134000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -521,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.9968910217285091E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,6 +546,9 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -551,6 +563,9 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -564,6 +579,9 @@
       </c>
       <c r="D9">
         <v>6.5138339996337804E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
